--- a/MS2000 Export.xlsx
+++ b/MS2000 Export.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughr\MATLAB Drive\PSD-Analyser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="15195" windowHeight="8190"/>
   </bookViews>
@@ -12,7 +17,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -251,8 +255,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -292,6 +296,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -338,7 +350,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,9 +382,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,6 +417,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -579,16 +593,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EA184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:131">
+    <row r="1" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -683,7 +697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:131">
+    <row r="2" spans="1:131" x14ac:dyDescent="0.2">
       <c r="AD2">
         <v>0.01</v>
       </c>
@@ -988,7 +1002,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:131">
+    <row r="3" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1371,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:131">
+    <row r="4" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -1754,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:131">
+    <row r="5" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>72</v>
       </c>
@@ -2137,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:131">
+    <row r="6" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2520,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:131">
+    <row r="7" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -2903,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:131">
+    <row r="8" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>72</v>
       </c>
@@ -3286,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:131">
+    <row r="9" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>72</v>
       </c>
@@ -3669,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:131">
+    <row r="10" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -4052,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:131">
+    <row r="11" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>72</v>
       </c>
@@ -4435,7 +4449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:131">
+    <row r="12" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -4818,7 +4832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:131">
+    <row r="13" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -5204,7 +5218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:131">
+    <row r="14" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -5587,7 +5601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:131">
+    <row r="15" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -5970,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:131">
+    <row r="16" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>74</v>
       </c>
@@ -6353,7 +6367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:131">
+    <row r="17" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>74</v>
       </c>
@@ -6736,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:131">
+    <row r="18" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -7119,7 +7133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:131">
+    <row r="19" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -7502,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:131">
+    <row r="20" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -7885,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:131">
+    <row r="21" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -8268,7 +8282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:131">
+    <row r="22" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -8651,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:131">
+    <row r="23" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -9034,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:131">
+    <row r="24" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -9420,7 +9434,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:131">
+    <row r="26" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -9515,7 +9529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:131">
+    <row r="27" spans="1:131" x14ac:dyDescent="0.2">
       <c r="AD27">
         <v>0.01</v>
       </c>
@@ -9820,7 +9834,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="28" spans="1:131">
+    <row r="28" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -10206,7 +10220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:131">
+    <row r="29" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>69</v>
       </c>
@@ -10592,7 +10606,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:131">
+    <row r="30" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>69</v>
       </c>
@@ -10978,7 +10992,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:131">
+    <row r="31" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>69</v>
       </c>
@@ -11364,7 +11378,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:131">
+    <row r="32" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -11750,7 +11764,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:131">
+    <row r="33" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -12136,7 +12150,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:131">
+    <row r="34" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -12522,7 +12536,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:131">
+    <row r="35" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -12908,7 +12922,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:131">
+    <row r="36" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -13294,7 +13308,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:131">
+    <row r="37" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>69</v>
       </c>
@@ -13680,7 +13694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:131">
+    <row r="38" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -14066,7 +14080,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:131">
+    <row r="40" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -14161,7 +14175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:131">
+    <row r="41" spans="1:131" x14ac:dyDescent="0.2">
       <c r="AD41">
         <v>0.01</v>
       </c>
@@ -14466,7 +14480,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:131">
+    <row r="42" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>16</v>
       </c>
@@ -14846,7 +14860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:131">
+    <row r="43" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>16</v>
       </c>
@@ -15226,7 +15240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:131">
+    <row r="44" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>16</v>
       </c>
@@ -15606,7 +15620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:131">
+    <row r="45" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>16</v>
       </c>
@@ -15986,7 +16000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:131">
+    <row r="46" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>16</v>
       </c>
@@ -16366,7 +16380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:131">
+    <row r="47" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>16</v>
       </c>
@@ -16746,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:131">
+    <row r="48" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>16</v>
       </c>
@@ -17126,7 +17140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:131">
+    <row r="49" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>16</v>
       </c>
@@ -17506,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:131">
+    <row r="50" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>16</v>
       </c>
@@ -17886,7 +17900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:131">
+    <row r="51" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>16</v>
       </c>
@@ -18266,7 +18280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:131">
+    <row r="52" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -18649,7 +18663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:131">
+    <row r="53" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -19032,7 +19046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="1:131">
+    <row r="54" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -19415,7 +19429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:131">
+    <row r="55" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -19798,7 +19812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:131">
+    <row r="56" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -20181,7 +20195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="57" spans="1:131">
+    <row r="57" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>40</v>
       </c>
@@ -20564,7 +20578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:131">
+    <row r="58" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>40</v>
       </c>
@@ -20947,7 +20961,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:131">
+    <row r="59" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -21330,7 +21344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:131">
+    <row r="60" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -21713,7 +21727,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:131">
+    <row r="61" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>40</v>
       </c>
@@ -22096,7 +22110,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:131">
+    <row r="62" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>40</v>
       </c>
@@ -22479,7 +22493,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:131">
+    <row r="63" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -22862,7 +22876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="1:131">
+    <row r="67" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -22957,7 +22971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:131">
+    <row r="68" spans="1:131" x14ac:dyDescent="0.2">
       <c r="AD68">
         <v>0.01</v>
       </c>
@@ -23262,7 +23276,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:131">
+    <row r="69" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -23645,7 +23659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:131">
+    <row r="70" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -24028,7 +24042,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:131">
+    <row r="71" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -24411,7 +24425,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:131">
+    <row r="72" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>43</v>
       </c>
@@ -24794,7 +24808,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:131">
+    <row r="73" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -25177,7 +25191,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:131">
+    <row r="74" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -25560,7 +25574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:131">
+    <row r="75" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -25943,7 +25957,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:131">
+    <row r="76" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -26326,7 +26340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:131">
+    <row r="77" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -26709,7 +26723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:131">
+    <row r="78" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -27092,7 +27106,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:131">
+    <row r="79" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>45</v>
       </c>
@@ -27475,7 +27489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="80" spans="1:131">
+    <row r="80" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>46</v>
       </c>
@@ -27858,7 +27872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="81" spans="1:131">
+    <row r="81" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>46</v>
       </c>
@@ -28241,7 +28255,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="82" spans="1:131">
+    <row r="82" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>46</v>
       </c>
@@ -28624,7 +28638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="1:131">
+    <row r="83" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>46</v>
       </c>
@@ -29007,7 +29021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:131">
+    <row r="84" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>46</v>
       </c>
@@ -29390,7 +29404,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:131">
+    <row r="85" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>46</v>
       </c>
@@ -29773,7 +29787,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:131">
+    <row r="86" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>46</v>
       </c>
@@ -30156,7 +30170,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="87" spans="1:131">
+    <row r="87" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>46</v>
       </c>
@@ -30539,7 +30553,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="88" spans="1:131">
+    <row r="88" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>46</v>
       </c>
@@ -30922,7 +30936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="89" spans="1:131">
+    <row r="89" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>46</v>
       </c>
@@ -31305,7 +31319,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:131">
+    <row r="90" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>48</v>
       </c>
@@ -31688,7 +31702,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:131">
+    <row r="91" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>22</v>
       </c>
@@ -32071,7 +32085,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:131">
+    <row r="92" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>22</v>
       </c>
@@ -32454,7 +32468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:131">
+    <row r="93" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>22</v>
       </c>
@@ -32837,7 +32851,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="94" spans="1:131">
+    <row r="94" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>22</v>
       </c>
@@ -33220,7 +33234,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:131">
+    <row r="95" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>22</v>
       </c>
@@ -33603,7 +33617,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:131">
+    <row r="96" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>22</v>
       </c>
@@ -33986,7 +34000,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:131">
+    <row r="97" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>22</v>
       </c>
@@ -34369,7 +34383,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="98" spans="1:131">
+    <row r="98" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>22</v>
       </c>
@@ -34752,7 +34766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="99" spans="1:131">
+    <row r="99" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>22</v>
       </c>
@@ -35135,7 +35149,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="100" spans="1:131">
+    <row r="100" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>22</v>
       </c>
@@ -35518,7 +35532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:131">
+    <row r="101" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>50</v>
       </c>
@@ -35901,7 +35915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:131">
+    <row r="102" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -36284,7 +36298,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="1:131">
+    <row r="103" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -36667,7 +36681,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:131">
+    <row r="104" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -37050,7 +37064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:131">
+    <row r="105" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -37433,7 +37447,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="106" spans="1:131">
+    <row r="106" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>51</v>
       </c>
@@ -37816,7 +37830,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="107" spans="1:131">
+    <row r="107" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>51</v>
       </c>
@@ -38199,7 +38213,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="108" spans="1:131">
+    <row r="108" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>51</v>
       </c>
@@ -38582,7 +38596,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:131">
+    <row r="109" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>51</v>
       </c>
@@ -38965,7 +38979,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:131">
+    <row r="110" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>51</v>
       </c>
@@ -39348,7 +39362,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="111" spans="1:131">
+    <row r="111" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>51</v>
       </c>
@@ -39731,7 +39745,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:131">
+    <row r="112" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>53</v>
       </c>
@@ -40114,7 +40128,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="1:131">
+    <row r="117" spans="1:131" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>0</v>
       </c>
@@ -40209,7 +40223,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:131">
+    <row r="118" spans="1:131" x14ac:dyDescent="0.2">
       <c r="AD118">
         <v>0.01</v>
       </c>
@@ -40514,7 +40528,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="119" spans="1:131" ht="25.5">
+    <row r="119" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>54</v>
       </c>
@@ -40897,7 +40911,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="1:131" ht="25.5">
+    <row r="120" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>54</v>
       </c>
@@ -41280,7 +41294,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="121" spans="1:131" ht="25.5">
+    <row r="121" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>54</v>
       </c>
@@ -41663,7 +41677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="122" spans="1:131" ht="25.5">
+    <row r="122" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>54</v>
       </c>
@@ -42046,7 +42060,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="1:131" ht="25.5">
+    <row r="123" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>54</v>
       </c>
@@ -42429,7 +42443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="1:131" ht="25.5">
+    <row r="124" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>54</v>
       </c>
@@ -42812,7 +42826,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="1:131" ht="25.5">
+    <row r="125" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>54</v>
       </c>
@@ -43195,7 +43209,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="1:131" ht="25.5">
+    <row r="126" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>54</v>
       </c>
@@ -43578,7 +43592,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="1:131" ht="25.5">
+    <row r="127" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>54</v>
       </c>
@@ -43961,7 +43975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="128" spans="1:131" ht="25.5">
+    <row r="128" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>54</v>
       </c>
@@ -44344,7 +44358,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="129" spans="1:131" ht="25.5">
+    <row r="129" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>58</v>
       </c>
@@ -44727,7 +44741,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="1:131" ht="25.5">
+    <row r="130" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>59</v>
       </c>
@@ -45110,7 +45124,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="131" spans="1:131" ht="25.5">
+    <row r="131" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>59</v>
       </c>
@@ -45493,7 +45507,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:131" ht="25.5">
+    <row r="132" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -45876,7 +45890,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="133" spans="1:131" ht="25.5">
+    <row r="133" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>59</v>
       </c>
@@ -46259,7 +46273,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="1:131" ht="25.5">
+    <row r="134" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -46642,7 +46656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="135" spans="1:131" ht="25.5">
+    <row r="135" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>59</v>
       </c>
@@ -47025,7 +47039,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="136" spans="1:131" ht="25.5">
+    <row r="136" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>59</v>
       </c>
@@ -47408,7 +47422,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:131" ht="25.5">
+    <row r="137" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -47791,7 +47805,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="138" spans="1:131" ht="25.5">
+    <row r="138" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>59</v>
       </c>
@@ -48174,7 +48188,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:131" ht="25.5">
+    <row r="139" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>59</v>
       </c>
@@ -48557,7 +48571,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:131" ht="25.5">
+    <row r="140" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>60</v>
       </c>
@@ -48940,7 +48954,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:131" ht="25.5">
+    <row r="141" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>61</v>
       </c>
@@ -49323,7 +49337,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="142" spans="1:131" ht="25.5">
+    <row r="142" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>61</v>
       </c>
@@ -49706,7 +49720,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="143" spans="1:131" ht="25.5">
+    <row r="143" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>61</v>
       </c>
@@ -50089,7 +50103,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="144" spans="1:131" ht="25.5">
+    <row r="144" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>61</v>
       </c>
@@ -50472,7 +50486,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="145" spans="1:131" ht="25.5">
+    <row r="145" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>61</v>
       </c>
@@ -50855,7 +50869,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="146" spans="1:131" ht="25.5">
+    <row r="146" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>61</v>
       </c>
@@ -51238,7 +51252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="147" spans="1:131" ht="25.5">
+    <row r="147" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>61</v>
       </c>
@@ -51621,7 +51635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="148" spans="1:131" ht="25.5">
+    <row r="148" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>61</v>
       </c>
@@ -52004,7 +52018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="149" spans="1:131" ht="25.5">
+    <row r="149" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>61</v>
       </c>
@@ -52387,7 +52401,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:131" ht="25.5">
+    <row r="150" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>61</v>
       </c>
@@ -52770,7 +52784,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="151" spans="1:131" ht="25.5">
+    <row r="151" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>62</v>
       </c>
@@ -53153,7 +53167,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="152" spans="1:131" ht="25.5">
+    <row r="152" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>63</v>
       </c>
@@ -53536,7 +53550,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="153" spans="1:131" ht="25.5">
+    <row r="153" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>63</v>
       </c>
@@ -53919,7 +53933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="154" spans="1:131" ht="25.5">
+    <row r="154" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>63</v>
       </c>
@@ -54302,7 +54316,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="155" spans="1:131" ht="25.5">
+    <row r="155" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>63</v>
       </c>
@@ -54685,7 +54699,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="156" spans="1:131" ht="25.5">
+    <row r="156" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>63</v>
       </c>
@@ -55068,7 +55082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="157" spans="1:131" ht="25.5">
+    <row r="157" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>63</v>
       </c>
@@ -55451,7 +55465,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="158" spans="1:131" ht="25.5">
+    <row r="158" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>63</v>
       </c>
@@ -55834,7 +55848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="159" spans="1:131" ht="25.5">
+    <row r="159" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>63</v>
       </c>
@@ -56217,7 +56231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="160" spans="1:131" ht="25.5">
+    <row r="160" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>63</v>
       </c>
@@ -56600,7 +56614,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="161" spans="1:131" ht="25.5">
+    <row r="161" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>63</v>
       </c>
@@ -56983,7 +56997,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="1:131" ht="25.5">
+    <row r="162" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>64</v>
       </c>
@@ -57366,7 +57380,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="1:131" ht="25.5">
+    <row r="163" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>65</v>
       </c>
@@ -57749,7 +57763,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="164" spans="1:131" ht="25.5">
+    <row r="164" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>65</v>
       </c>
@@ -58132,7 +58146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="165" spans="1:131" ht="25.5">
+    <row r="165" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>65</v>
       </c>
@@ -58515,7 +58529,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="166" spans="1:131" ht="25.5">
+    <row r="166" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>65</v>
       </c>
@@ -58898,7 +58912,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="167" spans="1:131" ht="25.5">
+    <row r="167" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>65</v>
       </c>
@@ -59281,7 +59295,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="168" spans="1:131" ht="25.5">
+    <row r="168" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>65</v>
       </c>
@@ -59664,7 +59678,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="169" spans="1:131" ht="25.5">
+    <row r="169" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>65</v>
       </c>
@@ -60047,7 +60061,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="170" spans="1:131" ht="25.5">
+    <row r="170" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>65</v>
       </c>
@@ -60430,7 +60444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="171" spans="1:131" ht="25.5">
+    <row r="171" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>65</v>
       </c>
@@ -60813,7 +60827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="172" spans="1:131" ht="25.5">
+    <row r="172" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>65</v>
       </c>
@@ -61196,7 +61210,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="173" spans="1:131" ht="25.5">
+    <row r="173" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>66</v>
       </c>
@@ -61579,7 +61593,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="174" spans="1:131" ht="25.5">
+    <row r="174" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>67</v>
       </c>
@@ -61962,7 +61976,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="175" spans="1:131" ht="25.5">
+    <row r="175" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>67</v>
       </c>
@@ -62345,7 +62359,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="176" spans="1:131" ht="25.5">
+    <row r="176" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>67</v>
       </c>
@@ -62728,7 +62742,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="177" spans="1:131" ht="25.5">
+    <row r="177" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>67</v>
       </c>
@@ -63111,7 +63125,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="178" spans="1:131" ht="25.5">
+    <row r="178" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>67</v>
       </c>
@@ -63494,7 +63508,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="179" spans="1:131" ht="25.5">
+    <row r="179" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>67</v>
       </c>
@@ -63877,7 +63891,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="180" spans="1:131" ht="25.5">
+    <row r="180" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>67</v>
       </c>
@@ -64260,7 +64274,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="181" spans="1:131" ht="25.5">
+    <row r="181" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>67</v>
       </c>
@@ -64643,7 +64657,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="182" spans="1:131" ht="25.5">
+    <row r="182" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>67</v>
       </c>
@@ -65026,7 +65040,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="183" spans="1:131" ht="25.5">
+    <row r="183" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>67</v>
       </c>
@@ -65409,7 +65423,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="184" spans="1:131" ht="25.5">
+    <row r="184" spans="1:131" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>68</v>
       </c>
@@ -65798,24 +65812,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MS2000 Export.xlsx
+++ b/MS2000 Export.xlsx
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EA184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="BV169" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="CK184" sqref="CK184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
